--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H2">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J2">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N2">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P2">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q2">
-        <v>588.6030493414412</v>
+        <v>676.4973290943374</v>
       </c>
       <c r="R2">
-        <v>5297.427444072971</v>
+        <v>6088.475961849036</v>
       </c>
       <c r="S2">
-        <v>0.012635193278912</v>
+        <v>0.007896669193397758</v>
       </c>
       <c r="T2">
-        <v>0.012635193278912</v>
+        <v>0.007896669193397755</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H3">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J3">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,25 +623,25 @@
         <v>16.614382</v>
       </c>
       <c r="N3">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O3">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P3">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q3">
-        <v>809.8951818758061</v>
+        <v>795.2042025749271</v>
       </c>
       <c r="R3">
-        <v>7289.056636882254</v>
+        <v>7156.837823174345</v>
       </c>
       <c r="S3">
-        <v>0.01738554051004288</v>
+        <v>0.009282319765165232</v>
       </c>
       <c r="T3">
-        <v>0.01738554051004288</v>
+        <v>0.00928231976516523</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H4">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J4">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N4">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O4">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P4">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q4">
-        <v>2138.388470935019</v>
+        <v>4205.08194136271</v>
       </c>
       <c r="R4">
-        <v>19245.49623841517</v>
+        <v>37845.73747226439</v>
       </c>
       <c r="S4">
-        <v>0.0459035196400889</v>
+        <v>0.04908539855807999</v>
       </c>
       <c r="T4">
-        <v>0.0459035196400889</v>
+        <v>0.04908539855807997</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H5">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J5">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N5">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P5">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q5">
-        <v>289.2071440469119</v>
+        <v>259.6553724878129</v>
       </c>
       <c r="R5">
-        <v>2602.864296422208</v>
+        <v>2336.898352390316</v>
       </c>
       <c r="S5">
-        <v>0.006208238585857425</v>
+        <v>0.003030924872341665</v>
       </c>
       <c r="T5">
-        <v>0.006208238585857425</v>
+        <v>0.003030924872341664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.746633</v>
+        <v>47.86240033333333</v>
       </c>
       <c r="H6">
-        <v>146.239899</v>
+        <v>143.587201</v>
       </c>
       <c r="I6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="J6">
-        <v>0.1549390820513319</v>
+        <v>0.1228118231805696</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N6">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P6">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q6">
-        <v>3391.652186209014</v>
+        <v>4584.689535079519</v>
       </c>
       <c r="R6">
-        <v>30524.86967588112</v>
+        <v>41262.20581571567</v>
       </c>
       <c r="S6">
-        <v>0.07280659003643074</v>
+        <v>0.05351651079158499</v>
       </c>
       <c r="T6">
-        <v>0.07280659003643074</v>
+        <v>0.05351651079158497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>55.966988</v>
       </c>
       <c r="I7">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J7">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N7">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P7">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q7">
-        <v>225.2623259761404</v>
+        <v>263.6830973497062</v>
       </c>
       <c r="R7">
-        <v>2027.360933785264</v>
+        <v>2373.147876147356</v>
       </c>
       <c r="S7">
-        <v>0.004835573023874619</v>
+        <v>0.003077940003767202</v>
       </c>
       <c r="T7">
-        <v>0.004835573023874618</v>
+        <v>0.003077940003767201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>55.966988</v>
       </c>
       <c r="I8">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J8">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,25 +933,25 @@
         <v>16.614382</v>
       </c>
       <c r="N8">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O8">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P8">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q8">
-        <v>309.9523060071388</v>
+        <v>309.9523060071386</v>
       </c>
       <c r="R8">
-        <v>2789.570754064248</v>
+        <v>2789.570754064247</v>
       </c>
       <c r="S8">
-        <v>0.006653562699048939</v>
+        <v>0.0036180347223926</v>
       </c>
       <c r="T8">
-        <v>0.006653562699048938</v>
+        <v>0.003618034722392599</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>55.966988</v>
       </c>
       <c r="I9">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J9">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N9">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O9">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P9">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q9">
-        <v>818.3755781461432</v>
+        <v>1639.044210850406</v>
       </c>
       <c r="R9">
-        <v>7365.380203315288</v>
+        <v>14751.39789765365</v>
       </c>
       <c r="S9">
-        <v>0.01756758415741672</v>
+        <v>0.01913235924193048</v>
       </c>
       <c r="T9">
-        <v>0.01756758415741671</v>
+        <v>0.01913235924193048</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>55.966988</v>
       </c>
       <c r="I10">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J10">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N10">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P10">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q10">
-        <v>110.6815094312107</v>
+        <v>101.2076913189564</v>
       </c>
       <c r="R10">
-        <v>996.133584880896</v>
+        <v>910.869221870608</v>
       </c>
       <c r="S10">
-        <v>0.002375934452989601</v>
+        <v>0.001181384794590762</v>
       </c>
       <c r="T10">
-        <v>0.002375934452989601</v>
+        <v>0.001181384794590762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>55.966988</v>
       </c>
       <c r="I11">
-        <v>0.05929622356958762</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="J11">
-        <v>0.05929622356958761</v>
+        <v>0.04786922362394307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N11">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P11">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q11">
-        <v>1298.007988953368</v>
+        <v>1787.006518732272</v>
       </c>
       <c r="R11">
-        <v>11682.07190058031</v>
+        <v>16083.05866859045</v>
       </c>
       <c r="S11">
-        <v>0.02786356923625774</v>
+        <v>0.02085950486126203</v>
       </c>
       <c r="T11">
-        <v>0.02786356923625774</v>
+        <v>0.02085950486126202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H12">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J12">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N12">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P12">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q12">
-        <v>1179.235967572919</v>
+        <v>2417.796675057328</v>
       </c>
       <c r="R12">
-        <v>10613.12370815627</v>
+        <v>21760.17007551595</v>
       </c>
       <c r="S12">
-        <v>0.02531396055185132</v>
+        <v>0.02822263991106206</v>
       </c>
       <c r="T12">
-        <v>0.02531396055185132</v>
+        <v>0.02822263991106206</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H13">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J13">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,25 +1243,25 @@
         <v>16.614382</v>
       </c>
       <c r="N13">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O13">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P13">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q13">
-        <v>1622.583385357123</v>
+        <v>2842.054202270414</v>
       </c>
       <c r="R13">
-        <v>14603.25046821411</v>
+        <v>25578.48782043373</v>
       </c>
       <c r="S13">
-        <v>0.03483103716176273</v>
+        <v>0.03317494526560914</v>
       </c>
       <c r="T13">
-        <v>0.03483103716176273</v>
+        <v>0.03317494526560914</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H14">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J14">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N14">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O14">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P14">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q14">
-        <v>4284.151433451115</v>
+        <v>15028.93315156398</v>
       </c>
       <c r="R14">
-        <v>38557.36290106003</v>
+        <v>135260.3983640758</v>
       </c>
       <c r="S14">
-        <v>0.09196534312614811</v>
+        <v>0.1754308676820214</v>
       </c>
       <c r="T14">
-        <v>0.09196534312614811</v>
+        <v>0.1754308676820213</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H15">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J15">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N15">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P15">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q15">
-        <v>579.4116539503786</v>
+        <v>928.0064669320525</v>
       </c>
       <c r="R15">
-        <v>5214.704885553408</v>
+        <v>8352.058202388473</v>
       </c>
       <c r="S15">
-        <v>0.01243788703423842</v>
+        <v>0.01083250408173352</v>
       </c>
       <c r="T15">
-        <v>0.01243788703423842</v>
+        <v>0.01083250408173352</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>97.66137466666667</v>
+        <v>171.0598806666667</v>
       </c>
       <c r="H16">
-        <v>292.984124</v>
+        <v>513.1796420000001</v>
       </c>
       <c r="I16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="J16">
-        <v>0.310412490288807</v>
+        <v>0.4389285884413335</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N16">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P16">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q16">
-        <v>6795.000895679865</v>
+        <v>16385.64800976415</v>
       </c>
       <c r="R16">
-        <v>61155.00806111877</v>
+        <v>147470.8320878773</v>
       </c>
       <c r="S16">
-        <v>0.1458642624148064</v>
+        <v>0.1912676315009074</v>
       </c>
       <c r="T16">
-        <v>0.1458642624148064</v>
+        <v>0.1912676315009074</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H17">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J17">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N17">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P17">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q17">
-        <v>130.8234653541195</v>
+        <v>178.487497653313</v>
       </c>
       <c r="R17">
-        <v>1177.411188187076</v>
+        <v>1606.387478879817</v>
       </c>
       <c r="S17">
-        <v>0.002808309899202502</v>
+        <v>0.002083462363424975</v>
       </c>
       <c r="T17">
-        <v>0.002808309899202502</v>
+        <v>0.002083462363424974</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H18">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J18">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,25 +1553,25 @@
         <v>16.614382</v>
       </c>
       <c r="N18">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O18">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P18">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q18">
-        <v>180.0080621144313</v>
+        <v>209.807196771954</v>
       </c>
       <c r="R18">
-        <v>1620.072559029882</v>
+        <v>1888.264770947586</v>
       </c>
       <c r="S18">
-        <v>0.003864126526566574</v>
+        <v>0.002449053316323135</v>
       </c>
       <c r="T18">
-        <v>0.003864126526566574</v>
+        <v>0.002449053316323135</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H19">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J19">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N19">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O19">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P19">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q19">
-        <v>475.2802255340269</v>
+        <v>1109.471569009404</v>
       </c>
       <c r="R19">
-        <v>4277.522029806242</v>
+        <v>9985.244121084635</v>
       </c>
       <c r="S19">
-        <v>0.01020255929354478</v>
+        <v>0.01295072365130579</v>
       </c>
       <c r="T19">
-        <v>0.01020255929354478</v>
+        <v>0.01295072365130579</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H20">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J20">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N20">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P20">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q20">
-        <v>64.27945086542933</v>
+        <v>68.507643259484</v>
       </c>
       <c r="R20">
-        <v>578.5150577888639</v>
+        <v>616.568789335356</v>
       </c>
       <c r="S20">
-        <v>0.001379848926123877</v>
+        <v>0.0007996812001662922</v>
       </c>
       <c r="T20">
-        <v>0.001379848926123877</v>
+        <v>0.0007996812001662921</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>10.83447233333333</v>
+        <v>12.628047</v>
       </c>
       <c r="H21">
-        <v>32.503417</v>
+        <v>37.884141</v>
       </c>
       <c r="I21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="J21">
-        <v>0.03443690557740099</v>
+        <v>0.0324027517316099</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N21">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P21">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q21">
-        <v>753.8317933829619</v>
+        <v>1209.627484751771</v>
       </c>
       <c r="R21">
-        <v>6784.486140446657</v>
+        <v>10886.64736276594</v>
       </c>
       <c r="S21">
-        <v>0.01618206093196326</v>
+        <v>0.0141198312003897</v>
       </c>
       <c r="T21">
-        <v>0.01618206093196326</v>
+        <v>0.0141198312003897</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H22">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J22">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>12.07474266666667</v>
+        <v>14.13421233333333</v>
       </c>
       <c r="N22">
-        <v>36.224228</v>
+        <v>42.402637</v>
       </c>
       <c r="O22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526193</v>
       </c>
       <c r="P22">
-        <v>0.08154942646895191</v>
+        <v>0.06429893302526192</v>
       </c>
       <c r="Q22">
-        <v>1675.007272341959</v>
+        <v>1971.940956389317</v>
       </c>
       <c r="R22">
-        <v>15075.06545107763</v>
+        <v>17747.46860750385</v>
       </c>
       <c r="S22">
-        <v>0.03595638971511148</v>
+        <v>0.02301822155360993</v>
       </c>
       <c r="T22">
-        <v>0.03595638971511148</v>
+        <v>0.02301822155360993</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H23">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J23">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,25 +1863,25 @@
         <v>16.614382</v>
       </c>
       <c r="N23">
-        <v>49.843146</v>
+        <v>49.84314599999999</v>
       </c>
       <c r="O23">
-        <v>0.1122088777077109</v>
+        <v>0.07558164617031606</v>
       </c>
       <c r="P23">
-        <v>0.1122088777077108</v>
+        <v>0.07558164617031604</v>
       </c>
       <c r="Q23">
-        <v>2304.745653279403</v>
+        <v>2317.962936896881</v>
       </c>
       <c r="R23">
-        <v>20742.71087951463</v>
+        <v>20861.66643207193</v>
       </c>
       <c r="S23">
-        <v>0.04947461081028973</v>
+        <v>0.02705729310082594</v>
       </c>
       <c r="T23">
-        <v>0.04947461081028973</v>
+        <v>0.02705729310082593</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H24">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J24">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>43.86740866666667</v>
+        <v>87.857732</v>
       </c>
       <c r="N24">
-        <v>131.602226</v>
+        <v>263.573196</v>
       </c>
       <c r="O24">
-        <v>0.2962681786437903</v>
+        <v>0.3996797481453391</v>
       </c>
       <c r="P24">
-        <v>0.2962681786437903</v>
+        <v>0.399679748145339</v>
       </c>
       <c r="Q24">
-        <v>6085.283186887795</v>
+        <v>12257.51078167211</v>
       </c>
       <c r="R24">
-        <v>54767.54868199015</v>
+        <v>110317.597035049</v>
       </c>
       <c r="S24">
-        <v>0.1306291724265918</v>
+        <v>0.1430803990120015</v>
       </c>
       <c r="T24">
-        <v>0.1306291724265918</v>
+        <v>0.1430803990120014</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H25">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J25">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.932863999999999</v>
+        <v>5.425038666666667</v>
       </c>
       <c r="N25">
-        <v>17.798592</v>
+        <v>16.275116</v>
       </c>
       <c r="O25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="P25">
-        <v>0.04006890000678209</v>
+        <v>0.02467942250059516</v>
       </c>
       <c r="Q25">
-        <v>823.0063878089387</v>
+        <v>756.8766963806302</v>
       </c>
       <c r="R25">
-        <v>7407.057490280448</v>
+        <v>6811.890267425672</v>
       </c>
       <c r="S25">
-        <v>0.01766699100757276</v>
+        <v>0.008834927551762921</v>
       </c>
       <c r="T25">
-        <v>0.01766699100757276</v>
+        <v>0.008834927551762921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>138.7199146666667</v>
+        <v>139.5154473333333</v>
       </c>
       <c r="H26">
-        <v>416.159744</v>
+        <v>418.546342</v>
       </c>
       <c r="I26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="J26">
-        <v>0.4409152985128724</v>
+        <v>0.3579876130225438</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>69.577158</v>
+        <v>95.78895966666666</v>
       </c>
       <c r="N26">
-        <v>208.731474</v>
+        <v>287.366879</v>
       </c>
       <c r="O26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584878</v>
       </c>
       <c r="P26">
-        <v>0.4699046171727648</v>
+        <v>0.4357602501584877</v>
       </c>
       <c r="Q26">
-        <v>9651.737420509186</v>
+        <v>13364.03955748962</v>
       </c>
       <c r="R26">
-        <v>86865.63678458266</v>
+        <v>120276.3560174066</v>
       </c>
       <c r="S26">
-        <v>0.2071881345533066</v>
+        <v>0.1559967718043436</v>
       </c>
       <c r="T26">
-        <v>0.2071881345533066</v>
+        <v>0.1559967718043436</v>
       </c>
     </row>
   </sheetData>
